--- a/data/pca/factorExposure/factorExposure_2018-02-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01114420796896949</v>
+        <v>0.009391042577365597</v>
       </c>
       <c r="C2">
-        <v>0.007830508674239673</v>
+        <v>-0.02319341213217431</v>
       </c>
       <c r="D2">
-        <v>-0.02299380272258671</v>
+        <v>0.02472273072158832</v>
       </c>
       <c r="E2">
-        <v>-0.02639547608600877</v>
+        <v>0.01297526449522019</v>
       </c>
       <c r="F2">
-        <v>0.07619699998717118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.00112357034449355</v>
+      </c>
+      <c r="G2">
+        <v>-0.006094169651183384</v>
+      </c>
+      <c r="H2">
+        <v>-0.03007300545293884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0870760471955298</v>
+        <v>0.05316749644142143</v>
       </c>
       <c r="C3">
-        <v>0.004716831929400128</v>
+        <v>-0.07375174182966543</v>
       </c>
       <c r="D3">
-        <v>0.009971372420584726</v>
+        <v>0.007317809484954426</v>
       </c>
       <c r="E3">
-        <v>-0.1244611019708711</v>
+        <v>0.05963572475508719</v>
       </c>
       <c r="F3">
-        <v>0.287322662199367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.05083462120294443</v>
+      </c>
+      <c r="G3">
+        <v>-0.04445127700649606</v>
+      </c>
+      <c r="H3">
+        <v>-0.1132556570482233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04368178020144726</v>
+        <v>0.0351731756942687</v>
       </c>
       <c r="C4">
-        <v>-0.008879978002422875</v>
+        <v>-0.06475351891597407</v>
       </c>
       <c r="D4">
-        <v>-0.02588205901869642</v>
+        <v>0.01854025205087072</v>
       </c>
       <c r="E4">
-        <v>0.01580257678120198</v>
+        <v>-0.007069381572687604</v>
       </c>
       <c r="F4">
-        <v>0.0662901981043741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.0281730629307098</v>
+      </c>
+      <c r="G4">
+        <v>-0.04560113492969485</v>
+      </c>
+      <c r="H4">
+        <v>-0.03040318447923232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04305050421711246</v>
+        <v>0.01729105806353332</v>
       </c>
       <c r="C6">
-        <v>0.00536594735504055</v>
+        <v>-0.0620126156088489</v>
       </c>
       <c r="D6">
-        <v>-0.03518976931070104</v>
+        <v>0.01354211851139104</v>
       </c>
       <c r="E6">
-        <v>0.02167912664842112</v>
+        <v>-0.01140753525538662</v>
       </c>
       <c r="F6">
-        <v>0.03931801147384254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.002819184215898646</v>
+      </c>
+      <c r="G6">
+        <v>-0.02977710386555127</v>
+      </c>
+      <c r="H6">
+        <v>-0.03324572812690795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04018426192801074</v>
+        <v>0.004238686503643964</v>
       </c>
       <c r="C7">
-        <v>-0.06741661650947409</v>
+        <v>-0.03753078528313043</v>
       </c>
       <c r="D7">
-        <v>-0.007639652610731483</v>
+        <v>0.01107830715790685</v>
       </c>
       <c r="E7">
-        <v>0.007335768616588993</v>
+        <v>-0.02246689761992535</v>
       </c>
       <c r="F7">
-        <v>0.03462788585719165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.07506900184409289</v>
+      </c>
+      <c r="G7">
+        <v>-0.005254877630661609</v>
+      </c>
+      <c r="H7">
+        <v>-0.01867570726512329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.005212005548102671</v>
+        <v>-0.005678913659101069</v>
       </c>
       <c r="C8">
-        <v>-0.008646561325182199</v>
+        <v>-0.004033038230672447</v>
       </c>
       <c r="D8">
-        <v>-0.02786664936729435</v>
+        <v>0.002031423889687051</v>
       </c>
       <c r="E8">
-        <v>0.006085482954303009</v>
+        <v>0.001444281415121827</v>
       </c>
       <c r="F8">
-        <v>0.06365724520356267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01885524826943497</v>
+      </c>
+      <c r="G8">
+        <v>-0.01621287961159798</v>
+      </c>
+      <c r="H8">
+        <v>-0.01911824332546892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03555462449968261</v>
+        <v>0.01590807371498252</v>
       </c>
       <c r="C9">
-        <v>-0.007616467090414222</v>
+        <v>-0.04700622222186615</v>
       </c>
       <c r="D9">
-        <v>-0.02810614657078598</v>
+        <v>0.01329727294038036</v>
       </c>
       <c r="E9">
-        <v>-0.01247469094216086</v>
+        <v>-0.004708369247137483</v>
       </c>
       <c r="F9">
-        <v>0.0687964276345676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02318859914535938</v>
+      </c>
+      <c r="G9">
+        <v>-0.0151008962013385</v>
+      </c>
+      <c r="H9">
+        <v>-0.0347398335871099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0508698879853311</v>
+        <v>0.1293779435408752</v>
       </c>
       <c r="C10">
-        <v>0.006514598856385955</v>
+        <v>0.1511979903253369</v>
       </c>
       <c r="D10">
-        <v>0.1531627754609912</v>
+        <v>-0.02100045748232155</v>
       </c>
       <c r="E10">
-        <v>-0.08524917366813506</v>
+        <v>0.03279441988117413</v>
       </c>
       <c r="F10">
-        <v>0.01096551042682777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03657172967888971</v>
+      </c>
+      <c r="G10">
+        <v>0.02889579998027891</v>
+      </c>
+      <c r="H10">
+        <v>0.0001547011247873697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03171339968323218</v>
+        <v>0.01372658965104656</v>
       </c>
       <c r="C11">
-        <v>0.007864063187100567</v>
+        <v>-0.04923902203507727</v>
       </c>
       <c r="D11">
-        <v>-0.03843067308829376</v>
+        <v>-0.0005088302120015355</v>
       </c>
       <c r="E11">
-        <v>0.0217578610324082</v>
+        <v>-0.01162318136234058</v>
       </c>
       <c r="F11">
-        <v>0.02840284091927049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.0004126709662706558</v>
+      </c>
+      <c r="G11">
+        <v>-0.01360817209494328</v>
+      </c>
+      <c r="H11">
+        <v>-0.03555655219570954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04058044434941881</v>
+        <v>0.01757793180488848</v>
       </c>
       <c r="C12">
-        <v>0.002793710308095881</v>
+        <v>-0.04634061827804541</v>
       </c>
       <c r="D12">
-        <v>-0.03386477559201017</v>
+        <v>0.0034981120590196</v>
       </c>
       <c r="E12">
-        <v>0.03390538683319522</v>
+        <v>-0.01748932564456863</v>
       </c>
       <c r="F12">
-        <v>0.009834704171374845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01072338557277251</v>
+      </c>
+      <c r="G12">
+        <v>-0.007260664080224993</v>
+      </c>
+      <c r="H12">
+        <v>-0.01368928924809001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01768458091615881</v>
+        <v>0.01236555849242263</v>
       </c>
       <c r="C13">
-        <v>0.01305814086541127</v>
+        <v>-0.02369804578938965</v>
       </c>
       <c r="D13">
-        <v>-0.002250512451428511</v>
+        <v>0.02122575544264921</v>
       </c>
       <c r="E13">
-        <v>-0.01532279712452649</v>
+        <v>0.01338108013798316</v>
       </c>
       <c r="F13">
-        <v>0.0661107670722927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.004026002797818753</v>
+      </c>
+      <c r="G13">
+        <v>-0.03160673655384408</v>
+      </c>
+      <c r="H13">
+        <v>-0.05033954751846804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02317092424477654</v>
+        <v>0.003238147281057004</v>
       </c>
       <c r="C14">
-        <v>-0.01463893428738657</v>
+        <v>-0.02068925202294864</v>
       </c>
       <c r="D14">
-        <v>-0.007870222424179492</v>
+        <v>0.007016617120690614</v>
       </c>
       <c r="E14">
-        <v>0.003747170835108984</v>
+        <v>-0.009294375486446864</v>
       </c>
       <c r="F14">
-        <v>0.04463262955570491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03148744401784586</v>
+      </c>
+      <c r="G14">
+        <v>-0.01037628013285104</v>
+      </c>
+      <c r="H14">
+        <v>-0.009760957255928572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03018762178265819</v>
+        <v>0.01365326839742795</v>
       </c>
       <c r="C16">
-        <v>0.003286722129681145</v>
+        <v>-0.04223652884774952</v>
       </c>
       <c r="D16">
-        <v>-0.03932014685114951</v>
+        <v>-0.0006211958775106046</v>
       </c>
       <c r="E16">
-        <v>0.02330126350876287</v>
+        <v>-0.01006138965546569</v>
       </c>
       <c r="F16">
-        <v>0.03476703204291765</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.007699202560282769</v>
+      </c>
+      <c r="G16">
+        <v>-0.01278261763936866</v>
+      </c>
+      <c r="H16">
+        <v>-0.02553330978587341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04390047490247848</v>
+        <v>0.01892027538650751</v>
       </c>
       <c r="C19">
-        <v>0.002565748275682134</v>
+        <v>-0.04495450206587631</v>
       </c>
       <c r="D19">
-        <v>-0.02275251742268418</v>
+        <v>0.01089546622408552</v>
       </c>
       <c r="E19">
-        <v>0.02118130356123417</v>
+        <v>0.01227987551421734</v>
       </c>
       <c r="F19">
-        <v>0.09592818185562253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0281483922347452</v>
+      </c>
+      <c r="G19">
+        <v>-0.0425683674891822</v>
+      </c>
+      <c r="H19">
+        <v>-0.04343247344555932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0003688490422517139</v>
+        <v>1.839646102806474e-06</v>
       </c>
       <c r="C20">
-        <v>-0.01092059970450749</v>
+        <v>-0.01987928775421062</v>
       </c>
       <c r="D20">
-        <v>0.002224752185359543</v>
+        <v>0.01084331948998499</v>
       </c>
       <c r="E20">
-        <v>-0.001396607892034525</v>
+        <v>0.009311079496222644</v>
       </c>
       <c r="F20">
-        <v>0.04472135101995645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02092689856933765</v>
+      </c>
+      <c r="G20">
+        <v>-0.02128935597049582</v>
+      </c>
+      <c r="H20">
+        <v>-0.01891523334318257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03697979303906886</v>
+        <v>0.003326919779659196</v>
       </c>
       <c r="C21">
-        <v>-0.01841333977381471</v>
+        <v>-0.02001671756369</v>
       </c>
       <c r="D21">
-        <v>-0.02112565958906507</v>
+        <v>0.01385138489519157</v>
       </c>
       <c r="E21">
-        <v>0.001004469378225559</v>
+        <v>0.01109215021340125</v>
       </c>
       <c r="F21">
-        <v>0.03517500172376813</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03782698704062433</v>
+      </c>
+      <c r="G21">
+        <v>-0.007720877884879918</v>
+      </c>
+      <c r="H21">
+        <v>-0.03201256305400305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02610464103293273</v>
+        <v>0.008019029244257842</v>
       </c>
       <c r="C24">
-        <v>0.003848964900562663</v>
+        <v>-0.04116569574400746</v>
       </c>
       <c r="D24">
-        <v>-0.02729522721547554</v>
+        <v>0.004435383401833567</v>
       </c>
       <c r="E24">
-        <v>0.01849404734421812</v>
+        <v>-0.01462023298137199</v>
       </c>
       <c r="F24">
-        <v>0.02695293579006701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.002919681149761693</v>
+      </c>
+      <c r="G24">
+        <v>-0.00993239430261213</v>
+      </c>
+      <c r="H24">
+        <v>-0.02975691839863361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03818640035526375</v>
+        <v>0.0230667605006152</v>
       </c>
       <c r="C25">
-        <v>0.006381098500925256</v>
+        <v>-0.05267154281458823</v>
       </c>
       <c r="D25">
-        <v>-0.0321714445684561</v>
+        <v>0.007839809816251202</v>
       </c>
       <c r="E25">
-        <v>0.01112447566940026</v>
+        <v>-0.02207848108462188</v>
       </c>
       <c r="F25">
-        <v>0.04086637200526714</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.008928026901482596</v>
+      </c>
+      <c r="G25">
+        <v>-0.01759322167328294</v>
+      </c>
+      <c r="H25">
+        <v>-0.02646374832269486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01663805769464924</v>
+        <v>0.002737761213073987</v>
       </c>
       <c r="C26">
-        <v>-0.007572372246544234</v>
+        <v>-0.004783845902065147</v>
       </c>
       <c r="D26">
-        <v>-0.01396293731142506</v>
+        <v>0.02295481649737097</v>
       </c>
       <c r="E26">
-        <v>-0.02614320250501066</v>
+        <v>-0.003226667561884107</v>
       </c>
       <c r="F26">
-        <v>0.04223890449163052</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.0211110454080039</v>
+      </c>
+      <c r="G26">
+        <v>0.001251353393377949</v>
+      </c>
+      <c r="H26">
+        <v>-0.01209615793834843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.01789801452292952</v>
+        <v>0.005995609412767638</v>
       </c>
       <c r="C27">
-        <v>-0.005729057157203304</v>
+        <v>-0.003016046912618009</v>
       </c>
       <c r="D27">
-        <v>0.01080996732168922</v>
+        <v>-0.001423103083650349</v>
       </c>
       <c r="E27">
-        <v>0.01570001594053134</v>
+        <v>-0.001278850392887709</v>
       </c>
       <c r="F27">
-        <v>0.02125002447773729</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01345935152625663</v>
+      </c>
+      <c r="G27">
+        <v>-0.00621424449789717</v>
+      </c>
+      <c r="H27">
+        <v>0.006022986798748015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09043619981591276</v>
+        <v>0.1800475811147179</v>
       </c>
       <c r="C28">
-        <v>0.01447952226226328</v>
+        <v>0.1895104319789543</v>
       </c>
       <c r="D28">
-        <v>0.2151458368316376</v>
+        <v>-0.01499480381695875</v>
       </c>
       <c r="E28">
-        <v>-0.1132267213523386</v>
+        <v>0.02621931673199123</v>
       </c>
       <c r="F28">
-        <v>-0.002379389426592471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04564191166135407</v>
+      </c>
+      <c r="G28">
+        <v>0.02737300102458425</v>
+      </c>
+      <c r="H28">
+        <v>-0.000574840784978377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02528395203255084</v>
+        <v>0.009536815346788095</v>
       </c>
       <c r="C29">
-        <v>-0.01167490084314247</v>
+        <v>-0.01997419661129253</v>
       </c>
       <c r="D29">
-        <v>-0.007613914928358922</v>
+        <v>0.005752893929118857</v>
       </c>
       <c r="E29">
-        <v>0.006074973371620935</v>
+        <v>-0.008635354235017883</v>
       </c>
       <c r="F29">
-        <v>0.04242974324910695</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02914436114283972</v>
+      </c>
+      <c r="G29">
+        <v>-0.009526104145875893</v>
+      </c>
+      <c r="H29">
+        <v>-0.001994379577355905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04688117289010124</v>
+        <v>0.0252517980320467</v>
       </c>
       <c r="C30">
-        <v>0.05260648961023815</v>
+        <v>-0.0879717372211713</v>
       </c>
       <c r="D30">
-        <v>-0.05589663384309092</v>
+        <v>0.02290272164510731</v>
       </c>
       <c r="E30">
-        <v>-0.003195994007952602</v>
+        <v>-0.001406996394203083</v>
       </c>
       <c r="F30">
-        <v>0.0856687707473992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02552304129084476</v>
+      </c>
+      <c r="G30">
+        <v>-0.03949773372656053</v>
+      </c>
+      <c r="H30">
+        <v>-0.04718128222923152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05236949405370164</v>
+        <v>0.03135472361640059</v>
       </c>
       <c r="C31">
-        <v>-0.00496829678523714</v>
+        <v>-0.02834732762414794</v>
       </c>
       <c r="D31">
-        <v>-0.01097754535742091</v>
+        <v>0.0008899541235322115</v>
       </c>
       <c r="E31">
-        <v>0.01431444017705997</v>
+        <v>-0.01251502278483569</v>
       </c>
       <c r="F31">
-        <v>0.03072855214444448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.03012279646009738</v>
+      </c>
+      <c r="G31">
+        <v>0.007909376675930514</v>
+      </c>
+      <c r="H31">
+        <v>0.007601980917411888</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01493409249920608</v>
+        <v>0.007545054101083969</v>
       </c>
       <c r="C32">
-        <v>-0.03291948126926723</v>
+        <v>-0.01792900954402161</v>
       </c>
       <c r="D32">
-        <v>-0.02548841795420447</v>
+        <v>-0.00883571236326202</v>
       </c>
       <c r="E32">
-        <v>0.01658992997725626</v>
+        <v>0.002017947560578531</v>
       </c>
       <c r="F32">
-        <v>0.05955009859113969</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.02835517560813591</v>
+      </c>
+      <c r="G32">
+        <v>-0.06019321203502577</v>
+      </c>
+      <c r="H32">
+        <v>-0.06001041229901942</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0412225175332708</v>
+        <v>0.01326346418048965</v>
       </c>
       <c r="C33">
-        <v>0.02356295117900422</v>
+        <v>-0.04470742262286879</v>
       </c>
       <c r="D33">
-        <v>-0.03877361071707724</v>
+        <v>0.01160504901975325</v>
       </c>
       <c r="E33">
-        <v>-0.009418586227146683</v>
+        <v>0.006783971482099049</v>
       </c>
       <c r="F33">
-        <v>0.05599356496592764</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.007505852124741327</v>
+      </c>
+      <c r="G33">
+        <v>0.004149169133798904</v>
+      </c>
+      <c r="H33">
+        <v>-0.03738576134315155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03176925100798457</v>
+        <v>0.02495292051474882</v>
       </c>
       <c r="C34">
-        <v>-0.00532845969716823</v>
+        <v>-0.05179764510821313</v>
       </c>
       <c r="D34">
-        <v>-0.03875333479821138</v>
+        <v>-0.008756960261755016</v>
       </c>
       <c r="E34">
-        <v>0.02908677721484793</v>
+        <v>-0.02581279005689049</v>
       </c>
       <c r="F34">
-        <v>0.03559211546400296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01268538933379005</v>
+      </c>
+      <c r="G34">
+        <v>-0.01619439740677337</v>
+      </c>
+      <c r="H34">
+        <v>-0.02884682303135706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01860910564332053</v>
+        <v>0.008415527303183193</v>
       </c>
       <c r="C36">
-        <v>-0.009079286686187472</v>
+        <v>-0.003018429713748671</v>
       </c>
       <c r="D36">
-        <v>0.0007843690410155953</v>
+        <v>0.009961608099895821</v>
       </c>
       <c r="E36">
-        <v>-0.002675985668660808</v>
+        <v>-0.002728232371495675</v>
       </c>
       <c r="F36">
-        <v>0.02785021191308757</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01957004496572875</v>
+      </c>
+      <c r="G36">
+        <v>0.001807490052672279</v>
+      </c>
+      <c r="H36">
+        <v>-0.006710306057735293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02117617557265074</v>
+        <v>0.02595527966903688</v>
       </c>
       <c r="C38">
-        <v>0.001739536780009848</v>
+        <v>-0.01914333058959463</v>
       </c>
       <c r="D38">
-        <v>0.002878832108483733</v>
+        <v>-0.01064072831357374</v>
       </c>
       <c r="E38">
-        <v>-0.03138448832601692</v>
+        <v>-0.007814983991528359</v>
       </c>
       <c r="F38">
-        <v>0.03682869094483311</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01449132318312189</v>
+      </c>
+      <c r="G38">
+        <v>-0.007367706220577136</v>
+      </c>
+      <c r="H38">
+        <v>-0.01734103723036309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02693391289980217</v>
+        <v>3.857903580514183e-05</v>
       </c>
       <c r="C39">
-        <v>-0.002539763121397173</v>
+        <v>-0.08452612777354274</v>
       </c>
       <c r="D39">
-        <v>-0.05233546405825869</v>
+        <v>0.009662248257147874</v>
       </c>
       <c r="E39">
-        <v>0.01094934671655336</v>
+        <v>-0.01076982433865215</v>
       </c>
       <c r="F39">
-        <v>0.05185193939578601</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.0006814883300834379</v>
+      </c>
+      <c r="G39">
+        <v>-0.0202965647552985</v>
+      </c>
+      <c r="H39">
+        <v>-0.05901819418953543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01777554246813901</v>
+        <v>0.01627573559820205</v>
       </c>
       <c r="C40">
-        <v>0.035750882683497</v>
+        <v>-0.02461737051762186</v>
       </c>
       <c r="D40">
-        <v>-0.02303519708915699</v>
+        <v>0.008871641088629255</v>
       </c>
       <c r="E40">
-        <v>0.02062764001326279</v>
+        <v>-0.0002720382725663611</v>
       </c>
       <c r="F40">
-        <v>0.03695917884527435</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02108263091855284</v>
+      </c>
+      <c r="G40">
+        <v>-0.02281120677495133</v>
+      </c>
+      <c r="H40">
+        <v>-0.03142532316304454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009416287162427869</v>
+        <v>0.01048017631169359</v>
       </c>
       <c r="C41">
-        <v>-0.004773670841532124</v>
+        <v>0.009940286273306851</v>
       </c>
       <c r="D41">
-        <v>0.004485804179910841</v>
+        <v>0.002574496977397645</v>
       </c>
       <c r="E41">
-        <v>-0.01921181407418806</v>
+        <v>-0.00420376877453619</v>
       </c>
       <c r="F41">
-        <v>-0.007745924833181616</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01253037239113845</v>
+      </c>
+      <c r="G41">
+        <v>0.01508468163212793</v>
+      </c>
+      <c r="H41">
+        <v>0.002676517402928848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2717428732925278</v>
+        <v>0.06683975519434127</v>
       </c>
       <c r="C42">
-        <v>0.1511409781586212</v>
+        <v>-0.1833049746158643</v>
       </c>
       <c r="D42">
-        <v>-0.4231541681608509</v>
+        <v>0.1213622532646674</v>
       </c>
       <c r="E42">
-        <v>-0.6379529946759648</v>
+        <v>0.1334389684627195</v>
       </c>
       <c r="F42">
-        <v>-0.5147765649727281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1339064540274912</v>
+      </c>
+      <c r="G42">
+        <v>0.9249507546517</v>
+      </c>
+      <c r="H42">
+        <v>-0.1864640210799259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01579616569482173</v>
+        <v>0.01383727590246519</v>
       </c>
       <c r="C43">
-        <v>0.0007136931988059563</v>
+        <v>0.00588835787749679</v>
       </c>
       <c r="D43">
-        <v>0.003112365304119665</v>
+        <v>0.002934324622051104</v>
       </c>
       <c r="E43">
-        <v>-0.01597987172261261</v>
+        <v>0.0009532325268993281</v>
       </c>
       <c r="F43">
-        <v>0.02131671977981475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.0108066181942356</v>
+      </c>
+      <c r="G43">
+        <v>0.009526745154521602</v>
+      </c>
+      <c r="H43">
+        <v>-0.005692347584115251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02022795667991152</v>
+        <v>0.00236554236932766</v>
       </c>
       <c r="C44">
-        <v>-0.0196802827919747</v>
+        <v>-0.04219045965701148</v>
       </c>
       <c r="D44">
-        <v>-0.02208009732291774</v>
+        <v>0.005115778365455338</v>
       </c>
       <c r="E44">
-        <v>-0.02396289788706498</v>
+        <v>0.005254322014047155</v>
       </c>
       <c r="F44">
-        <v>0.07508276476376251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03323449663307057</v>
+      </c>
+      <c r="G44">
+        <v>-0.006397741402773821</v>
+      </c>
+      <c r="H44">
+        <v>-0.05256754471658194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02241602405471522</v>
+        <v>0.0007478090109540874</v>
       </c>
       <c r="C46">
-        <v>-0.004132613391893697</v>
+        <v>-0.01193962197261093</v>
       </c>
       <c r="D46">
-        <v>-0.03494352704918259</v>
+        <v>0.0107906773335643</v>
       </c>
       <c r="E46">
-        <v>0.006509280625665398</v>
+        <v>-0.000585864456637018</v>
       </c>
       <c r="F46">
-        <v>0.07084175765070322</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.0213022207120943</v>
+      </c>
+      <c r="G46">
+        <v>-0.003793358168697364</v>
+      </c>
+      <c r="H46">
+        <v>-0.005817136677133486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0757303435608972</v>
+        <v>0.05025452564925283</v>
       </c>
       <c r="C47">
-        <v>0.01533570667806413</v>
+        <v>-0.06265619002093037</v>
       </c>
       <c r="D47">
-        <v>-0.01210038205994121</v>
+        <v>-0.008224467641886739</v>
       </c>
       <c r="E47">
-        <v>0.02895834995981843</v>
+        <v>-0.01387640562012706</v>
       </c>
       <c r="F47">
-        <v>0.006748812581750825</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.02106581145186394</v>
+      </c>
+      <c r="G47">
+        <v>0.01330731449704471</v>
+      </c>
+      <c r="H47">
+        <v>0.0431208192748628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02557735519049468</v>
+        <v>0.0107726543888673</v>
       </c>
       <c r="C48">
-        <v>-0.003427991685444477</v>
+        <v>-0.01323414963832161</v>
       </c>
       <c r="D48">
-        <v>-0.007443870703402565</v>
+        <v>0.0003856176319301718</v>
       </c>
       <c r="E48">
-        <v>-0.0005295516422846576</v>
+        <v>-0.00396498251052878</v>
       </c>
       <c r="F48">
-        <v>0.02841440056524424</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01884964181553313</v>
+      </c>
+      <c r="G48">
+        <v>-8.73929610371457e-05</v>
+      </c>
+      <c r="H48">
+        <v>-0.008960552899064042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08601633764150733</v>
+        <v>0.0573012557124984</v>
       </c>
       <c r="C50">
-        <v>-0.01193986420206804</v>
+        <v>-0.05946482796105858</v>
       </c>
       <c r="D50">
-        <v>-0.03343151144834448</v>
+        <v>-0.007298582857247689</v>
       </c>
       <c r="E50">
-        <v>0.02483470742989227</v>
+        <v>-0.01496076280731418</v>
       </c>
       <c r="F50">
-        <v>0.02326209343342503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.04294149247900875</v>
+      </c>
+      <c r="G50">
+        <v>0.01199012098621514</v>
+      </c>
+      <c r="H50">
+        <v>0.03291582026159863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02234845495191972</v>
+        <v>0.008858824543466802</v>
       </c>
       <c r="C51">
-        <v>-0.01165853972532953</v>
+        <v>-0.01594152837426445</v>
       </c>
       <c r="D51">
-        <v>0.01449226860512622</v>
+        <v>0.006189349667894225</v>
       </c>
       <c r="E51">
-        <v>-0.02790655529332062</v>
+        <v>-0.008460191585951321</v>
       </c>
       <c r="F51">
-        <v>0.08506807136856689</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03061441919290818</v>
+      </c>
+      <c r="G51">
+        <v>-0.00857219624625394</v>
+      </c>
+      <c r="H51">
+        <v>-0.03561427912875922</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09863391545004713</v>
+        <v>0.0684412369631042</v>
       </c>
       <c r="C53">
-        <v>0.01952629735931661</v>
+        <v>-0.09287188838978407</v>
       </c>
       <c r="D53">
-        <v>-0.03621646084870513</v>
+        <v>-0.009322968145252344</v>
       </c>
       <c r="E53">
-        <v>0.06891690702445823</v>
+        <v>-0.03678442157271924</v>
       </c>
       <c r="F53">
-        <v>-0.01793237784273375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01198859905802953</v>
+      </c>
+      <c r="G53">
+        <v>0.01490508430014777</v>
+      </c>
+      <c r="H53">
+        <v>0.05051323427545264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02744912359028017</v>
+        <v>0.02032896784892365</v>
       </c>
       <c r="C54">
-        <v>-0.01039705643027975</v>
+        <v>0.000288543919910649</v>
       </c>
       <c r="D54">
-        <v>0.008371226530514291</v>
+        <v>-0.005594320785128852</v>
       </c>
       <c r="E54">
-        <v>0.005697673614137271</v>
+        <v>0.001197979604301048</v>
       </c>
       <c r="F54">
-        <v>0.02985888964298544</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02873954476659379</v>
+      </c>
+      <c r="G54">
+        <v>-0.004375794889108101</v>
+      </c>
+      <c r="H54">
+        <v>4.841036932040638e-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08340555565755023</v>
+        <v>0.04993412879748783</v>
       </c>
       <c r="C55">
-        <v>0.01764008420130461</v>
+        <v>-0.08494420673757017</v>
       </c>
       <c r="D55">
-        <v>-0.05768980514823864</v>
+        <v>-0.007353615222516141</v>
       </c>
       <c r="E55">
-        <v>0.0456757844366917</v>
+        <v>-0.02692966979352512</v>
       </c>
       <c r="F55">
-        <v>-0.02004131636205711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01085423292351078</v>
+      </c>
+      <c r="G55">
+        <v>0.02015119226033278</v>
+      </c>
+      <c r="H55">
+        <v>0.04741743786411232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1329074399466718</v>
+        <v>0.1058372409437908</v>
       </c>
       <c r="C56">
-        <v>0.04014709112010247</v>
+        <v>-0.1291689486198026</v>
       </c>
       <c r="D56">
-        <v>-0.03933875487889434</v>
+        <v>-0.01952838696144039</v>
       </c>
       <c r="E56">
-        <v>0.09951556205084197</v>
+        <v>-0.0441482044175186</v>
       </c>
       <c r="F56">
-        <v>-0.04567661625848789</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.00533831287384787</v>
+      </c>
+      <c r="G56">
+        <v>0.009792941268918515</v>
+      </c>
+      <c r="H56">
+        <v>0.09092392969061699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04334684840323423</v>
+        <v>0.01933294033378863</v>
       </c>
       <c r="C57">
-        <v>0.008423036806551622</v>
+        <v>-0.02721335060486951</v>
       </c>
       <c r="D57">
-        <v>-0.02174486045676167</v>
+        <v>0.02287998819198315</v>
       </c>
       <c r="E57">
-        <v>-0.04186892543045737</v>
+        <v>0.02929562928052919</v>
       </c>
       <c r="F57">
-        <v>0.04755421685617202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02385012258037819</v>
+      </c>
+      <c r="G57">
+        <v>-0.01609589104674098</v>
+      </c>
+      <c r="H57">
+        <v>-0.05110841495614563</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1761148947522923</v>
+        <v>0.064305195750934</v>
       </c>
       <c r="C58">
-        <v>0.1612372521144829</v>
+        <v>-0.201757835455709</v>
       </c>
       <c r="D58">
-        <v>-0.2190060898585667</v>
+        <v>0.01376185772069431</v>
       </c>
       <c r="E58">
-        <v>-0.2323529086934432</v>
+        <v>0.9429706633854894</v>
       </c>
       <c r="F58">
-        <v>0.5653584945348079</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.08958129180128689</v>
+      </c>
+      <c r="G58">
+        <v>-0.147851418250712</v>
+      </c>
+      <c r="H58">
+        <v>0.1091162006536658</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08242209962500933</v>
+        <v>0.2029890308810386</v>
       </c>
       <c r="C59">
-        <v>0.03940697314390793</v>
+        <v>0.173354426273836</v>
       </c>
       <c r="D59">
-        <v>0.1884514709267474</v>
+        <v>-0.02338726642749304</v>
       </c>
       <c r="E59">
-        <v>-0.08192729236610531</v>
+        <v>0.024407130977824</v>
       </c>
       <c r="F59">
-        <v>0.04495438786517369</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0148588707366006</v>
+      </c>
+      <c r="G59">
+        <v>-0.001058871060340571</v>
+      </c>
+      <c r="H59">
+        <v>-0.0130339699246103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1709178692814317</v>
+        <v>0.2483170490344657</v>
       </c>
       <c r="C60">
-        <v>0.08485930504398287</v>
+        <v>-0.1033254562136873</v>
       </c>
       <c r="D60">
-        <v>0.009188518514292462</v>
+        <v>-0.009765445638813696</v>
       </c>
       <c r="E60">
-        <v>-0.05660236124810166</v>
+        <v>-0.03685499516887111</v>
       </c>
       <c r="F60">
-        <v>0.1499562970244655</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1326032547533485</v>
+      </c>
+      <c r="G60">
+        <v>-0.1570007342405067</v>
+      </c>
+      <c r="H60">
+        <v>-0.3702551226849888</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02910988322060281</v>
+        <v>0.009954048754282132</v>
       </c>
       <c r="C61">
-        <v>0.002387267765004777</v>
+        <v>-0.06474865924705751</v>
       </c>
       <c r="D61">
-        <v>-0.04188389985289166</v>
+        <v>0.002636943849678356</v>
       </c>
       <c r="E61">
-        <v>0.008540058007085004</v>
+        <v>-0.0112921391682164</v>
       </c>
       <c r="F61">
-        <v>0.02924467807523128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.005443686388946845</v>
+      </c>
+      <c r="G61">
+        <v>-0.02175268160544706</v>
+      </c>
+      <c r="H61">
+        <v>-0.04190475128416268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01839403467758087</v>
+        <v>0.005315690508588736</v>
       </c>
       <c r="C63">
-        <v>-0.006794373398205207</v>
+        <v>-0.02248430144819542</v>
       </c>
       <c r="D63">
-        <v>-0.01883611716822741</v>
+        <v>0.006589319497076597</v>
       </c>
       <c r="E63">
-        <v>0.006792304037910439</v>
+        <v>-0.01778083304185984</v>
       </c>
       <c r="F63">
-        <v>0.01029220644653784</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02216149483976164</v>
+      </c>
+      <c r="G63">
+        <v>-0.004494788666238122</v>
+      </c>
+      <c r="H63">
+        <v>-0.002788271870359931</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04389813479153016</v>
+        <v>0.035226576827473</v>
       </c>
       <c r="C64">
-        <v>0.0006069093898345969</v>
+        <v>-0.04337371995232518</v>
       </c>
       <c r="D64">
-        <v>-0.02241867963969331</v>
+        <v>0.001340021745523094</v>
       </c>
       <c r="E64">
-        <v>0.007804673522269247</v>
+        <v>-0.02322522670997401</v>
       </c>
       <c r="F64">
-        <v>0.03061487366955029</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.006852828643635207</v>
+      </c>
+      <c r="G64">
+        <v>0.00526524151719476</v>
+      </c>
+      <c r="H64">
+        <v>-0.02681032754620462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0473937872009637</v>
+        <v>0.04617062336339367</v>
       </c>
       <c r="C65">
-        <v>0.005760027147450534</v>
+        <v>-0.08545574130442936</v>
       </c>
       <c r="D65">
-        <v>-0.03635054671113726</v>
+        <v>0.0116942009131795</v>
       </c>
       <c r="E65">
-        <v>0.02815437157011989</v>
+        <v>-0.02941684361617542</v>
       </c>
       <c r="F65">
-        <v>0.03514544841164547</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.01301759811367386</v>
+      </c>
+      <c r="G65">
+        <v>-0.04611389622254007</v>
+      </c>
+      <c r="H65">
+        <v>-0.04872466843901226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04243420668680924</v>
+        <v>0.01018509637739249</v>
       </c>
       <c r="C66">
-        <v>0.01814161798585789</v>
+        <v>-0.1192993734273199</v>
       </c>
       <c r="D66">
-        <v>-0.06166398354078392</v>
+        <v>0.0070748414698523</v>
       </c>
       <c r="E66">
-        <v>0.04841915169965369</v>
+        <v>-0.01695184700115708</v>
       </c>
       <c r="F66">
-        <v>0.05754032950815523</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01397225428405036</v>
+      </c>
+      <c r="G66">
+        <v>-0.04592732338545788</v>
+      </c>
+      <c r="H66">
+        <v>-0.05757221670940618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03501952122128486</v>
+        <v>0.04907981146118458</v>
       </c>
       <c r="C67">
-        <v>0.007239074977242248</v>
+        <v>-0.02921835706974314</v>
       </c>
       <c r="D67">
-        <v>0.01033818502518223</v>
+        <v>-0.01031685533909892</v>
       </c>
       <c r="E67">
-        <v>-0.02130556772677359</v>
+        <v>-0.014863497888754</v>
       </c>
       <c r="F67">
-        <v>0.02409396474723343</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01263920575949502</v>
+      </c>
+      <c r="G67">
+        <v>-0.01348715609597996</v>
+      </c>
+      <c r="H67">
+        <v>-0.01396576090707793</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08784284117303462</v>
+        <v>0.1993756802930023</v>
       </c>
       <c r="C68">
-        <v>0.03732077222771285</v>
+        <v>0.2133742191521074</v>
       </c>
       <c r="D68">
-        <v>0.2022996851674053</v>
+        <v>-0.003630919715313443</v>
       </c>
       <c r="E68">
-        <v>-0.09771062827945934</v>
+        <v>0.03852948239283313</v>
       </c>
       <c r="F68">
-        <v>0.02380629873925806</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02580457566314129</v>
+      </c>
+      <c r="G68">
+        <v>0.04000166076621766</v>
+      </c>
+      <c r="H68">
+        <v>0.01887407541424512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06753194780652563</v>
+        <v>0.05354176350759799</v>
       </c>
       <c r="C69">
-        <v>0.01489613476884946</v>
+        <v>-0.06153862779248432</v>
       </c>
       <c r="D69">
-        <v>-0.01504369567738245</v>
+        <v>-0.0130289486602005</v>
       </c>
       <c r="E69">
-        <v>0.03476208412518986</v>
+        <v>-0.0291182946159965</v>
       </c>
       <c r="F69">
-        <v>0.0197911749848496</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01040807866274548</v>
+      </c>
+      <c r="G69">
+        <v>-0.003743600131288106</v>
+      </c>
+      <c r="H69">
+        <v>0.01910083662516255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08896569513122665</v>
+        <v>0.1804531053988229</v>
       </c>
       <c r="C71">
-        <v>0.02199270777012362</v>
+        <v>0.1734942800566359</v>
       </c>
       <c r="D71">
-        <v>0.1963763533229574</v>
+        <v>-0.01058381153324317</v>
       </c>
       <c r="E71">
-        <v>-0.1332577001734054</v>
+        <v>0.04482760983019188</v>
       </c>
       <c r="F71">
-        <v>0.003292412509541173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04149562639140219</v>
+      </c>
+      <c r="G71">
+        <v>0.04480885665961813</v>
+      </c>
+      <c r="H71">
+        <v>0.001086616033563069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.10144367537666</v>
+        <v>0.05613492603918712</v>
       </c>
       <c r="C72">
-        <v>0.03249100048133343</v>
+        <v>-0.09862872370402376</v>
       </c>
       <c r="D72">
-        <v>-0.08252996281846248</v>
+        <v>-0.01461679908760014</v>
       </c>
       <c r="E72">
-        <v>0.06735309091910514</v>
+        <v>-0.03738505892801507</v>
       </c>
       <c r="F72">
-        <v>0.1381427909677307</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02160942428747185</v>
+      </c>
+      <c r="G72">
+        <v>-0.05886240076952586</v>
+      </c>
+      <c r="H72">
+        <v>-0.05714503210205829</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2075740810373316</v>
+        <v>0.3238972979522895</v>
       </c>
       <c r="C73">
-        <v>0.1429010289510678</v>
+        <v>-0.1646525111236439</v>
       </c>
       <c r="D73">
-        <v>-0.02728975306499158</v>
+        <v>-0.008253504162499063</v>
       </c>
       <c r="E73">
-        <v>-0.09450324308006906</v>
+        <v>-0.03525198291714486</v>
       </c>
       <c r="F73">
-        <v>0.1612041313836042</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1929951653616988</v>
+      </c>
+      <c r="G73">
+        <v>-0.176029958085378</v>
+      </c>
+      <c r="H73">
+        <v>-0.4745618101649327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1322475748000543</v>
+        <v>0.09656295286023932</v>
       </c>
       <c r="C74">
-        <v>0.03467399074671479</v>
+        <v>-0.1353509085610926</v>
       </c>
       <c r="D74">
-        <v>-0.03700857659117614</v>
+        <v>-0.01819373779312029</v>
       </c>
       <c r="E74">
-        <v>0.08361670673613923</v>
+        <v>-0.04845455871912963</v>
       </c>
       <c r="F74">
-        <v>-0.04738329257701411</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01433988700792584</v>
+      </c>
+      <c r="G74">
+        <v>0.01107095066349775</v>
+      </c>
+      <c r="H74">
+        <v>0.06725265053842328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.228401665766222</v>
+        <v>0.2107086702812976</v>
       </c>
       <c r="C75">
-        <v>0.0764081868022122</v>
+        <v>-0.2190101917255849</v>
       </c>
       <c r="D75">
-        <v>-0.03079955607650703</v>
+        <v>-0.04115931169584159</v>
       </c>
       <c r="E75">
-        <v>0.200034045168579</v>
+        <v>-0.06964721880848411</v>
       </c>
       <c r="F75">
-        <v>-0.0537223966405029</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.01193780089559379</v>
+      </c>
+      <c r="G75">
+        <v>0.002593215211302632</v>
+      </c>
+      <c r="H75">
+        <v>0.1915498479918536</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2625545151149345</v>
+        <v>0.1398967225146356</v>
       </c>
       <c r="C76">
-        <v>0.06237367396665598</v>
+        <v>-0.1881233875280104</v>
       </c>
       <c r="D76">
-        <v>-0.04874078379380473</v>
+        <v>-0.03317378523932749</v>
       </c>
       <c r="E76">
-        <v>0.2578021806915071</v>
+        <v>-0.08547496348161704</v>
       </c>
       <c r="F76">
-        <v>-0.11177190337358</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.02018172666188624</v>
+      </c>
+      <c r="G76">
+        <v>0.01238418302013856</v>
+      </c>
+      <c r="H76">
+        <v>0.1594421982419291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09491754649289214</v>
+        <v>0.04457092710897784</v>
       </c>
       <c r="C77">
-        <v>0.0347295910852732</v>
+        <v>-0.08273035698964207</v>
       </c>
       <c r="D77">
-        <v>-0.08165912854053348</v>
+        <v>0.009883104861463175</v>
       </c>
       <c r="E77">
-        <v>-0.0697410896329531</v>
+        <v>0.02513715004093239</v>
       </c>
       <c r="F77">
-        <v>0.0602769087490323</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01860159456710322</v>
+      </c>
+      <c r="G77">
+        <v>0.02226989089369547</v>
+      </c>
+      <c r="H77">
+        <v>-0.006038928667013007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0502286897378308</v>
+        <v>0.02478862018560059</v>
       </c>
       <c r="C78">
-        <v>-0.001574216333639526</v>
+        <v>-0.07317983790668785</v>
       </c>
       <c r="D78">
-        <v>-0.09359836738935527</v>
+        <v>0.00333638495677529</v>
       </c>
       <c r="E78">
-        <v>0.0126781151939382</v>
+        <v>0.0008366677431755581</v>
       </c>
       <c r="F78">
-        <v>0.09425721179849379</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.00995790648297021</v>
+      </c>
+      <c r="G78">
+        <v>-0.02810449177086633</v>
+      </c>
+      <c r="H78">
+        <v>-0.06810937382658354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.3773461145057412</v>
+        <v>0.08078399185607238</v>
       </c>
       <c r="C80">
-        <v>-0.9032307379570431</v>
+        <v>-0.1177784775030177</v>
       </c>
       <c r="D80">
-        <v>0.002029566557689355</v>
+        <v>0.005829091049030434</v>
       </c>
       <c r="E80">
-        <v>-0.08463040341568985</v>
+        <v>-0.1042113438536551</v>
       </c>
       <c r="F80">
-        <v>0.01381464693777805</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.9277904694460382</v>
+      </c>
+      <c r="G80">
+        <v>0.07852864663545039</v>
+      </c>
+      <c r="H80">
+        <v>-0.1701892935781413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1845929272426052</v>
+        <v>0.1267461836550227</v>
       </c>
       <c r="C81">
-        <v>0.05300143035306661</v>
+        <v>-0.1373398448525351</v>
       </c>
       <c r="D81">
-        <v>-0.005283096283536094</v>
+        <v>-0.02411036928987621</v>
       </c>
       <c r="E81">
-        <v>0.151318200308223</v>
+        <v>-0.03979894345177928</v>
       </c>
       <c r="F81">
-        <v>-0.03660860943422543</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01308112617464323</v>
+      </c>
+      <c r="G81">
+        <v>0.005588160451713254</v>
+      </c>
+      <c r="H81">
+        <v>0.1157364003430014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.005368632957807787</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.002474933320911799</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0008889233162754147</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01289291180749256</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.002940851071554094</v>
+      </c>
+      <c r="G82">
+        <v>-0.0005930226962122622</v>
+      </c>
+      <c r="H82">
+        <v>-0.001156490779248263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03972747972387057</v>
+        <v>0.02088945018378568</v>
       </c>
       <c r="C83">
-        <v>-0.0001198987864335341</v>
+        <v>-0.02284226060715238</v>
       </c>
       <c r="D83">
-        <v>-0.01804585769581116</v>
+        <v>0.003670286467138371</v>
       </c>
       <c r="E83">
-        <v>-0.02981294459997369</v>
+        <v>0.01907353735710752</v>
       </c>
       <c r="F83">
-        <v>0.0471090016898725</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02451846577896168</v>
+      </c>
+      <c r="G83">
+        <v>-0.01149051594820152</v>
+      </c>
+      <c r="H83">
+        <v>-0.03876426449652572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2427050713198801</v>
+        <v>0.2038578945129585</v>
       </c>
       <c r="C85">
-        <v>0.07996740750398107</v>
+        <v>-0.217838297789958</v>
       </c>
       <c r="D85">
-        <v>-0.04607822725688025</v>
+        <v>-0.02943567040769383</v>
       </c>
       <c r="E85">
-        <v>0.2269995085595052</v>
+        <v>-0.1016671730929083</v>
       </c>
       <c r="F85">
-        <v>-0.07795443776121264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.0460802349746143</v>
+      </c>
+      <c r="G85">
+        <v>-0.0001222876725974856</v>
+      </c>
+      <c r="H85">
+        <v>0.1449322807193823</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0101131037029059</v>
+        <v>0.00756591279477676</v>
       </c>
       <c r="C86">
-        <v>-0.002505946355657354</v>
+        <v>-0.03350843490303049</v>
       </c>
       <c r="D86">
-        <v>-0.04297448300131675</v>
+        <v>0.007035221539792475</v>
       </c>
       <c r="E86">
-        <v>-0.001757646491593323</v>
+        <v>0.003359107470470516</v>
       </c>
       <c r="F86">
-        <v>0.09221286440421052</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02189135264605311</v>
+      </c>
+      <c r="G86">
+        <v>-0.001242397546284395</v>
+      </c>
+      <c r="H86">
+        <v>-0.04880525881306017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.030808080786378</v>
+        <v>0.001900965936626192</v>
       </c>
       <c r="C87">
-        <v>0.003506600631757085</v>
+        <v>-0.03912791266201227</v>
       </c>
       <c r="D87">
-        <v>-0.03715996941547076</v>
+        <v>0.009145499645467348</v>
       </c>
       <c r="E87">
-        <v>-0.01802029592116156</v>
+        <v>0.03592739590717508</v>
       </c>
       <c r="F87">
-        <v>0.09817363687802433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02088181636160961</v>
+      </c>
+      <c r="G87">
+        <v>-0.02606059366976602</v>
+      </c>
+      <c r="H87">
+        <v>-0.06861495302496018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03814355928090536</v>
+        <v>0.04369586725890718</v>
       </c>
       <c r="C88">
-        <v>0.0003672689897376141</v>
+        <v>-0.02328284583890097</v>
       </c>
       <c r="D88">
-        <v>0.01241149190902855</v>
+        <v>0.01786947380064898</v>
       </c>
       <c r="E88">
-        <v>0.008603252486249872</v>
+        <v>-0.007549033947033274</v>
       </c>
       <c r="F88">
-        <v>-0.001677474600869039</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02545509525071909</v>
+      </c>
+      <c r="G88">
+        <v>-0.008671773071915929</v>
+      </c>
+      <c r="H88">
+        <v>0.01289368981310833</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1444170418136461</v>
+        <v>0.3094079287987637</v>
       </c>
       <c r="C89">
-        <v>0.07630679170982099</v>
+        <v>0.3018543272714527</v>
       </c>
       <c r="D89">
-        <v>0.3568415710733282</v>
+        <v>-0.0168558984897386</v>
       </c>
       <c r="E89">
-        <v>-0.1133957305772476</v>
+        <v>0.02602241470672462</v>
       </c>
       <c r="F89">
-        <v>0.03332533671014056</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01352537373354431</v>
+      </c>
+      <c r="G89">
+        <v>0.02844662543686287</v>
+      </c>
+      <c r="H89">
+        <v>0.02465086734791986</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09480633792321894</v>
+        <v>0.2533725952368324</v>
       </c>
       <c r="C90">
-        <v>0.05526471603085039</v>
+        <v>0.2725100289309892</v>
       </c>
       <c r="D90">
-        <v>0.3206820467960835</v>
+        <v>-0.01553469232848707</v>
       </c>
       <c r="E90">
-        <v>-0.1234520531230113</v>
+        <v>0.0396917535001259</v>
       </c>
       <c r="F90">
-        <v>-0.03336003505832698</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.02072258495789454</v>
+      </c>
+      <c r="G90">
+        <v>0.0544843648681196</v>
+      </c>
+      <c r="H90">
+        <v>0.04892143271418536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2767546302484707</v>
+        <v>0.1861889290613211</v>
       </c>
       <c r="C91">
-        <v>0.1016362726501595</v>
+        <v>-0.1872982657341777</v>
       </c>
       <c r="D91">
-        <v>-0.05384330838287998</v>
+        <v>-0.03644434465762967</v>
       </c>
       <c r="E91">
-        <v>0.2167767210464259</v>
+        <v>-0.07423613526168059</v>
       </c>
       <c r="F91">
-        <v>-0.1657457131340531</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.01089127275339865</v>
+      </c>
+      <c r="G91">
+        <v>0.03977266978175142</v>
+      </c>
+      <c r="H91">
+        <v>0.1963586746278141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1850931745497897</v>
+        <v>0.2764109380929397</v>
       </c>
       <c r="C92">
-        <v>0.08237175574544203</v>
+        <v>0.1938693977592679</v>
       </c>
       <c r="D92">
-        <v>0.3845615379905641</v>
+        <v>-0.06079898470900872</v>
       </c>
       <c r="E92">
-        <v>-0.02670266685313125</v>
+        <v>0.03709628549428955</v>
       </c>
       <c r="F92">
-        <v>-0.09789262047732135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.05026569565670965</v>
+      </c>
+      <c r="G92">
+        <v>0.03484396329385573</v>
+      </c>
+      <c r="H92">
+        <v>0.1512523786813164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1336352870750997</v>
+        <v>0.2963316222045171</v>
       </c>
       <c r="C93">
-        <v>0.09162101120430509</v>
+        <v>0.2560612916005719</v>
       </c>
       <c r="D93">
-        <v>0.3623650239413511</v>
+        <v>-0.02590490025159456</v>
       </c>
       <c r="E93">
-        <v>-0.1688671008695043</v>
+        <v>0.0456151402583421</v>
       </c>
       <c r="F93">
-        <v>-0.05215234648522694</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.002577261437187418</v>
+      </c>
+      <c r="G93">
+        <v>0.04384400403415612</v>
+      </c>
+      <c r="H93">
+        <v>-0.002222761695877372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2849688334912153</v>
+        <v>0.235614263720455</v>
       </c>
       <c r="C94">
-        <v>0.1285344762211705</v>
+        <v>-0.2314268137799878</v>
       </c>
       <c r="D94">
-        <v>-0.002505473760793225</v>
+        <v>-0.02711231105670541</v>
       </c>
       <c r="E94">
-        <v>0.2887857521711112</v>
+        <v>-0.09644057217045153</v>
       </c>
       <c r="F94">
-        <v>-0.04104160817198942</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.06682757568516007</v>
+      </c>
+      <c r="G94">
+        <v>-0.03479256280237242</v>
+      </c>
+      <c r="H94">
+        <v>0.4488288949483991</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06683611901325986</v>
+        <v>0.05319380764619674</v>
       </c>
       <c r="C95">
-        <v>0.06706360268665705</v>
+        <v>-0.1023763894861015</v>
       </c>
       <c r="D95">
-        <v>-0.01950951723806292</v>
+        <v>-0.01402615849505624</v>
       </c>
       <c r="E95">
-        <v>0.01524272035109183</v>
+        <v>0.02797769312246622</v>
       </c>
       <c r="F95">
-        <v>0.03670215773650393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.04810126483360991</v>
+      </c>
+      <c r="G95">
+        <v>-0.01036691540569556</v>
+      </c>
+      <c r="H95">
+        <v>-0.03777980770237522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1695151197166579</v>
+        <v>0.1894559437225133</v>
       </c>
       <c r="C98">
-        <v>0.09220640467784309</v>
+        <v>-0.07105847214795569</v>
       </c>
       <c r="D98">
-        <v>0.02087145355154845</v>
+        <v>-0.03021703036557583</v>
       </c>
       <c r="E98">
-        <v>-0.1121631030607764</v>
+        <v>0.02154019611343332</v>
       </c>
       <c r="F98">
-        <v>0.1398420707014815</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.0821843128588654</v>
+      </c>
+      <c r="G98">
+        <v>-0.07100270632486541</v>
+      </c>
+      <c r="H98">
+        <v>-0.3061451181395762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.009983237432295943</v>
+        <v>0.003383952836170975</v>
       </c>
       <c r="C101">
-        <v>-0.00984786788240846</v>
+        <v>-0.02097955823963816</v>
       </c>
       <c r="D101">
-        <v>-0.03346695081340165</v>
+        <v>0.006783353069288725</v>
       </c>
       <c r="E101">
-        <v>-0.03000032270071702</v>
+        <v>0.02867636074027084</v>
       </c>
       <c r="F101">
-        <v>0.1763931665017054</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03604020785686641</v>
+      </c>
+      <c r="G101">
+        <v>-0.02740435439466928</v>
+      </c>
+      <c r="H101">
+        <v>0.0001907084833676934</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1185878781536441</v>
+        <v>0.1048151460656879</v>
       </c>
       <c r="C102">
-        <v>0.03841703532151045</v>
+        <v>-0.1074567512545357</v>
       </c>
       <c r="D102">
-        <v>-0.02402674396147781</v>
+        <v>-0.007462626242627809</v>
       </c>
       <c r="E102">
-        <v>0.1125649550144146</v>
+        <v>-0.05342649690315617</v>
       </c>
       <c r="F102">
-        <v>-0.06273204134826091</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.01904472269018982</v>
+      </c>
+      <c r="G102">
+        <v>-0.001417271269911595</v>
+      </c>
+      <c r="H102">
+        <v>0.0745196107674351</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04492544367937289</v>
+        <v>0.01070019093297392</v>
       </c>
       <c r="C103">
-        <v>-0.009810305270394384</v>
+        <v>-0.01312761508026492</v>
       </c>
       <c r="D103">
-        <v>-0.007218003715212583</v>
+        <v>-0.001050278892884203</v>
       </c>
       <c r="E103">
-        <v>0.03722267361381425</v>
+        <v>-0.002534525372139098</v>
       </c>
       <c r="F103">
-        <v>0.01071290955297362</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02351473493191807</v>
+      </c>
+      <c r="G103">
+        <v>0.0006721027832606159</v>
+      </c>
+      <c r="H103">
+        <v>0.01166996047759317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.0884123897012602</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.0269230627749093</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9817466713733076</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04242908554002595</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.001461915032082371</v>
+      </c>
+      <c r="G104">
+        <v>-0.1045971341262748</v>
+      </c>
+      <c r="H104">
+        <v>0.07171022015363622</v>
       </c>
     </row>
   </sheetData>
